--- a/pgcluster巡检报告.xlsx
+++ b/pgcluster巡检报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="282"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="343" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="状态统计" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="角色" sheetId="3" r:id="rId3"/>
     <sheet name="数据库" sheetId="4" r:id="rId4"/>
     <sheet name="数据表" sheetId="5" r:id="rId5"/>
-    <sheet name="索引" sheetId="6" r:id="rId6"/>
+    <sheet name="外部表" sheetId="6" r:id="rId6"/>
+    <sheet name="索引" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
   <si>
     <t>ID号</t>
   </si>
@@ -34,7 +35,7 @@
     <t>主机IP</t>
   </si>
   <si>
-    <t>192.168.1.10</t>
+    <t>192.168.0.231</t>
   </si>
   <si>
     <t>服务管理员</t>
@@ -46,19 +47,19 @@
     <t>服务器端程序所在目录</t>
   </si>
   <si>
-    <t>/usr/local/pgsql/bin/</t>
+    <t>/usr/local/pgsql9.6.11/bin/</t>
   </si>
   <si>
     <t>data目录路径</t>
   </si>
   <si>
-    <t>/home/postgres/data/</t>
+    <t>/home/postgres/data9.6.1/</t>
   </si>
   <si>
     <t>访问日志目录路径</t>
   </si>
   <si>
-    <t>/home/postgres/data/pg_log/</t>
+    <t>/home/postgres/data9.6.1/pg_log/</t>
   </si>
   <si>
     <t>服务端口号</t>
@@ -70,7 +71,7 @@
     <t>版本号</t>
   </si>
   <si>
-    <t>PostgreSQL 9.4.1 on x86_64-unknown-linux-gnu, compiled by gcc (GCC) 4.8.3 20140911 (Red Hat 4.8.3-9), 64-bit</t>
+    <t>PostgreSQL 9.6.1 on x86_64-pc-linux-gnu, compiled by gcc (GCC) 4.4.7 20120313 (Red Hat 4.4.7-18), 64-bit</t>
   </si>
   <si>
     <t>节点类号</t>
@@ -79,27 +80,75 @@
     <t>主节点</t>
   </si>
   <si>
+    <t>timezone配置</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>shared_buffers配置</t>
+  </si>
+  <si>
+    <t>256MB</t>
+  </si>
+  <si>
+    <t>autovacuum配置</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>log_destination配置</t>
+  </si>
+  <si>
+    <t>csvlog</t>
+  </si>
+  <si>
+    <t>logging_collector配置</t>
+  </si>
+  <si>
+    <t>log_timezone配置</t>
+  </si>
+  <si>
     <t>占用空间</t>
   </si>
   <si>
-    <t>2154 MB</t>
+    <t>277 MB</t>
   </si>
   <si>
     <t>表空间数</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>角色数</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>数据库数</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>数据表数</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>外部表数</t>
+  </si>
+  <si>
     <t>索引数</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>表空间名称</t>
   </si>
   <si>
@@ -115,13 +164,13 @@
     <t>pg_global</t>
   </si>
   <si>
-    <t>645 kB</t>
+    <t>545 kB</t>
   </si>
   <si>
     <t>pg_default</t>
   </si>
   <si>
-    <t>2153 MB</t>
+    <t>276 MB</t>
   </si>
   <si>
     <t>用户名</t>
@@ -151,51 +200,54 @@
     <t>口令过期时间</t>
   </si>
   <si>
+    <t>pg_signal_backend</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>无密码</t>
+  </si>
+  <si>
+    <t>u_test</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>zabbix</t>
+  </si>
+  <si>
+    <t>数据库名称</t>
+  </si>
+  <si>
+    <t>默认编码</t>
+  </si>
+  <si>
+    <t>排序规则</t>
+  </si>
+  <si>
+    <t>分组规则</t>
+  </si>
+  <si>
+    <t>模板数据库</t>
+  </si>
+  <si>
+    <t>准许连接</t>
+  </si>
+  <si>
+    <t>最大连接数</t>
+  </si>
+  <si>
+    <t>默认表空间</t>
+  </si>
+  <si>
     <t>pgcluster</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>无密码</t>
-  </si>
-  <si>
-    <t>2017-10-01 00:00:00+08</t>
-  </si>
-  <si>
-    <t>集群管理员</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>数据库名称</t>
-  </si>
-  <si>
-    <t>默认编码</t>
-  </si>
-  <si>
-    <t>排序规则</t>
-  </si>
-  <si>
-    <t>分组规则</t>
-  </si>
-  <si>
-    <t>模板数据库</t>
-  </si>
-  <si>
-    <t>准许连接</t>
-  </si>
-  <si>
-    <t>最大连接数</t>
-  </si>
-  <si>
-    <t>默认表空间</t>
-  </si>
-  <si>
     <t>postgresql集群管理器</t>
   </si>
   <si>
@@ -205,7 +257,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>16 MB</t>
+    <t>26 MB</t>
   </si>
   <si>
     <t>所属模式</t>
@@ -214,15 +266,30 @@
     <t>表名</t>
   </si>
   <si>
+    <t>表类型</t>
+  </si>
+  <si>
     <t>存储表空间</t>
   </si>
   <si>
+    <t>记录数（估值）</t>
+  </si>
+  <si>
     <t>记录数</t>
   </si>
   <si>
+    <t>记录数偏差</t>
+  </si>
+  <si>
     <t>表文件占用空间</t>
   </si>
   <si>
+    <t>占用盘页（估值）</t>
+  </si>
+  <si>
+    <t>每行占用空间</t>
+  </si>
+  <si>
     <t>索引文件占用空间</t>
   </si>
   <si>
@@ -256,43 +323,136 @@
     <t>public</t>
   </si>
   <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>节点资料表</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>48 kB</t>
+  </si>
+  <si>
+    <t>64 kB</t>
+  </si>
+  <si>
+    <t>112 kB</t>
+  </si>
+  <si>
+    <t>2017-08-07 16:54:46</t>
+  </si>
+  <si>
+    <t>2017-08-07 16:54:41</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>32 kB</t>
+  </si>
+  <si>
+    <t>80 kB</t>
+  </si>
+  <si>
+    <t>errhandle_log</t>
+  </si>
+  <si>
+    <t>错误日志表</t>
+  </si>
+  <si>
+    <t>8192 bytes</t>
+  </si>
+  <si>
+    <t>16 kB</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>日志表</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>88 kB</t>
+  </si>
+  <si>
+    <t>341 bytes</t>
+  </si>
+  <si>
+    <t>104 kB</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:15:04</t>
+  </si>
+  <si>
     <t>parameter_bak_template</t>
   </si>
   <si>
     <t>参数文件备份或者模板表</t>
   </si>
   <si>
-    <t>256 kB</t>
-  </si>
-  <si>
-    <t>16 kB</t>
-  </si>
-  <si>
-    <t>272 kB</t>
-  </si>
-  <si>
-    <t>2017-04-30 23:27:43</t>
-  </si>
-  <si>
-    <t>2017-05-22 17:19:20</t>
-  </si>
-  <si>
-    <t>nodes</t>
-  </si>
-  <si>
-    <t>节点资料表</t>
-  </si>
-  <si>
-    <t>48 kB</t>
-  </si>
-  <si>
-    <t>64 kB</t>
-  </si>
-  <si>
-    <t>112 kB</t>
-  </si>
-  <si>
-    <t>2017-04-30 23:27:42</t>
+    <t>inspection_report</t>
+  </si>
+  <si>
+    <t>巡检报表</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:11:33</t>
+  </si>
+  <si>
+    <t>inspection_report_role</t>
+  </si>
+  <si>
+    <t>巡检报表--角色统计</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4096 bytes</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:26:05</t>
+  </si>
+  <si>
+    <t>inspection_report_tablespace</t>
+  </si>
+  <si>
+    <t>巡检报表--表空间统计</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:06:33</t>
+  </si>
+  <si>
+    <t>inspection_report_database</t>
+  </si>
+  <si>
+    <t>巡检报表--数据库统计</t>
+  </si>
+  <si>
+    <t>2017-08-07 16:54:42</t>
   </si>
   <si>
     <t>inspection_report_index</t>
@@ -301,61 +461,34 @@
     <t>巡检报表--索引统计</t>
   </si>
   <si>
-    <t>2816 kB</t>
-  </si>
-  <si>
-    <t>1080 kB</t>
-  </si>
-  <si>
-    <t>3896 kB</t>
-  </si>
-  <si>
-    <t>2017-04-30 23:27:44</t>
-  </si>
-  <si>
-    <t>2017-05-22 17:05:35</t>
-  </si>
-  <si>
-    <t>2017-05-22 17:19:21</t>
-  </si>
-  <si>
-    <t>2017-05-23 16:46:45</t>
-  </si>
-  <si>
-    <t>inspection_report</t>
-  </si>
-  <si>
-    <t>巡检报表</t>
-  </si>
-  <si>
-    <t>32 kB</t>
-  </si>
-  <si>
-    <t>inspection_report_tablespace</t>
-  </si>
-  <si>
-    <t>巡检报表--表空间统计</t>
-  </si>
-  <si>
-    <t>2017-05-22 16:54:35</t>
-  </si>
-  <si>
-    <t>2017-05-22 17:16:35</t>
-  </si>
-  <si>
-    <t>inspection_report_role</t>
-  </si>
-  <si>
-    <t>巡检报表--角色统计</t>
-  </si>
-  <si>
-    <t>80 kB</t>
-  </si>
-  <si>
-    <t>2017-05-22 17:06:35</t>
-  </si>
-  <si>
-    <t>2017-05-23 16:45:45</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>72 kB</t>
+  </si>
+  <si>
+    <t>921 bytes</t>
+  </si>
+  <si>
+    <t>120 kB</t>
+  </si>
+  <si>
+    <t>inspection_report_state</t>
+  </si>
+  <si>
+    <t>巡检报表--状态统计</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>780 bytes</t>
   </si>
   <si>
     <t>inspection_report_table</t>
@@ -364,55 +497,82 @@
     <t>巡检报表--数据表统计</t>
   </si>
   <si>
-    <t>1184 kB</t>
-  </si>
-  <si>
-    <t>680 kB</t>
-  </si>
-  <si>
-    <t>1864 kB</t>
-  </si>
-  <si>
-    <t>inspection_report_database</t>
-  </si>
-  <si>
-    <t>巡检报表--数据库统计</t>
-  </si>
-  <si>
-    <t>56 kB</t>
-  </si>
-  <si>
-    <t>88 kB</t>
-  </si>
-  <si>
-    <t>2017-05-21 22:56:31</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>日志表</t>
-  </si>
-  <si>
-    <t>2160 kB</t>
-  </si>
-  <si>
-    <t>2224 kB</t>
-  </si>
-  <si>
-    <t>2017-05-21 23:23:31</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>用户表</t>
-  </si>
-  <si>
-    <t>inspection_report_state</t>
-  </si>
-  <si>
-    <t>巡检报表--状态统计</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1456 bytes</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:26:04</t>
+  </si>
+  <si>
+    <t>inspection_report_foreign_table</t>
+  </si>
+  <si>
+    <t>巡检报表--外部表统计</t>
+  </si>
+  <si>
+    <t>2017-08-07 23:29:04</t>
+  </si>
+  <si>
+    <t>mv_users</t>
+  </si>
+  <si>
+    <t>物化视图</t>
+  </si>
+  <si>
+    <t>用户表物化视图</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>17 MB</t>
+  </si>
+  <si>
+    <t>0 bytes</t>
+  </si>
+  <si>
+    <t>2017-08-07 17:22:44</t>
+  </si>
+  <si>
+    <t>2017-08-07 17:22:45</t>
+  </si>
+  <si>
+    <t>外部服务器名称</t>
+  </si>
+  <si>
+    <t>外部服务器配置</t>
+  </si>
+  <si>
+    <t>外部表名称</t>
+  </si>
+  <si>
+    <t>fdw_users</t>
+  </si>
+  <si>
+    <t>foreign_server</t>
+  </si>
+  <si>
+    <t>{host=192.168.0.231,port=5432,dbname=postgres}</t>
+  </si>
+  <si>
+    <t>{schema_name=public,table_name=users}</t>
+  </si>
+  <si>
+    <t>外部用户表</t>
+  </si>
+  <si>
+    <t>fdw_product</t>
+  </si>
+  <si>
+    <t>{schema_name=public,table_name=product}</t>
+  </si>
+  <si>
+    <t>外部产品表</t>
   </si>
   <si>
     <t>数据库名</t>
@@ -427,67 +587,154 @@
     <t>索引定义</t>
   </si>
   <si>
+    <t>nodes_createtime_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX nodes_createtime_idx ON nodes USING btree (createtime)</t>
+  </si>
+  <si>
+    <t>nodes_node_name_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX nodes_node_name_idx ON nodes USING btree (node_name)</t>
+  </si>
+  <si>
+    <t>nodes_node_name_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX nodes_node_name_key ON nodes USING btree (node_name)</t>
+  </si>
+  <si>
+    <t>nodes_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX nodes_id_key ON nodes USING btree (id)</t>
+  </si>
+  <si>
+    <t>users_username_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX users_username_key ON users USING btree (username)</t>
+  </si>
+  <si>
+    <t>users_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX users_id_key ON users USING btree (id)</t>
+  </si>
+  <si>
+    <t>errhandle_log_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX errhandle_log_id_key ON errhandle_log USING btree (id)</t>
+  </si>
+  <si>
+    <t>log_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX log_id_key ON log USING btree (id)</t>
+  </si>
+  <si>
+    <t>parameter_bak_template_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX parameter_bak_template_id_key ON parameter_bak_template USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_table_tablename_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_table_tablename_idx ON inspection_report_table USING btree (tablename)</t>
+  </si>
+  <si>
+    <t>inspection_report_table_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_table_inspection_report_id_idx ON inspection_report_table USING btree (inspection_report_id)</t>
+  </si>
+  <si>
+    <t>inspection_report_table_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_table_id_key ON inspection_report_table USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_nodeid_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_nodeid_idx ON inspection_report USING btree (nodeid)</t>
+  </si>
+  <si>
+    <t>inspection_report_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_id_key ON inspection_report USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_tablespace_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_tablespace_inspection_report_id_idx ON inspection_report_tablespace USING btree (inspection_report_id)</t>
+  </si>
+  <si>
+    <t>inspection_report_tablespace_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_tablespace_id_key ON inspection_report_tablespace USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_index_tablename_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_index_tablename_idx ON inspection_report_index USING btree (tablename)</t>
+  </si>
+  <si>
+    <t>inspection_report_index_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_index_inspection_report_id_idx ON inspection_report_index USING btree (inspection_report_id)</t>
+  </si>
+  <si>
+    <t>inspection_report_index_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_index_id_key ON inspection_report_index USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_state_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_state_inspection_report_id_idx ON inspection_report_state USING btree (inspection_report_id)</t>
+  </si>
+  <si>
     <t>inspection_report_state_id_key</t>
   </si>
   <si>
     <t>CREATE UNIQUE INDEX inspection_report_state_id_key ON inspection_report_state USING btree (id)</t>
   </si>
   <si>
-    <t>inspection_report_state_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_state_inspection_report_id_idx ON inspection_report_state USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>inspection_report_index_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX inspection_report_index_id_key ON inspection_report_index USING btree (id)</t>
-  </si>
-  <si>
-    <t>inspection_report_index_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>320 kB</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_index_inspection_report_id_idx ON inspection_report_index USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>inspection_report_index_tablename_idx</t>
-  </si>
-  <si>
-    <t>504 kB</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_index_tablename_idx ON inspection_report_index USING btree (tablename)</t>
-  </si>
-  <si>
-    <t>inspection_report_table_id_key</t>
-  </si>
-  <si>
-    <t>216 kB</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX inspection_report_table_id_key ON inspection_report_table USING btree (id)</t>
-  </si>
-  <si>
-    <t>inspection_report_table_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>176 kB</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_table_inspection_report_id_idx ON inspection_report_table USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>inspection_report_table_tablename_idx</t>
-  </si>
-  <si>
-    <t>288 kB</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_table_tablename_idx ON inspection_report_table USING btree (tablename)</t>
+    <t>inspection_report_foreign_table_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_foreign_table_id_key ON inspection_report_foreign_table USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_role_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_role_inspection_report_id_idx ON inspection_report_role USING btree (inspection_report_id)</t>
+  </si>
+  <si>
+    <t>inspection_report_role_id_key</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX inspection_report_role_id_key ON inspection_report_role USING btree (id)</t>
+  </si>
+  <si>
+    <t>inspection_report_database_inspection_report_id_idx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX inspection_report_database_inspection_report_id_idx ON inspection_report_database USING btree (inspection_report_id)</t>
   </si>
   <si>
     <t>inspection_report_database_id_key</t>
@@ -496,91 +743,10 @@
     <t>CREATE UNIQUE INDEX inspection_report_database_id_key ON inspection_report_database USING btree (id)</t>
   </si>
   <si>
-    <t>inspection_report_database_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_database_inspection_report_id_idx ON inspection_report_database USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>inspection_report_tablespace_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX inspection_report_tablespace_id_key ON inspection_report_tablespace USING btree (id)</t>
-  </si>
-  <si>
-    <t>inspection_report_tablespace_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_tablespace_inspection_report_id_idx ON inspection_report_tablespace USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>parameter_bak_template_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX parameter_bak_template_id_key ON parameter_bak_template USING btree (id)</t>
-  </si>
-  <si>
-    <t>inspection_report_role_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX inspection_report_role_id_key ON inspection_report_role USING btree (id)</t>
-  </si>
-  <si>
-    <t>inspection_report_role_inspection_report_id_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX inspection_report_role_inspection_report_id_idx ON inspection_report_role USING btree (inspection_report_id)</t>
-  </si>
-  <si>
-    <t>nodes_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX nodes_id_key ON nodes USING btree (id)</t>
-  </si>
-  <si>
-    <t>nodes_node_name_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX nodes_node_name_key ON nodes USING btree (node_name)</t>
-  </si>
-  <si>
-    <t>nodes_node_name_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX nodes_node_name_idx ON nodes USING btree (node_name)</t>
-  </si>
-  <si>
-    <t>nodes_createtime_idx</t>
-  </si>
-  <si>
-    <t>CREATE INDEX nodes_createtime_idx ON nodes USING btree (createtime)</t>
-  </si>
-  <si>
-    <t>log_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX log_id_key ON log USING btree (id)</t>
-  </si>
-  <si>
-    <t>users_id_key</t>
-  </si>
-  <si>
-    <t>操作id列索引</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX users_id_key ON users USING btree (id)</t>
-  </si>
-  <si>
-    <t>users_username_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX users_username_key ON users USING btree (username)</t>
-  </si>
-  <si>
-    <t>inspection_report_id_key</t>
-  </si>
-  <si>
-    <t>CREATE UNIQUE INDEX inspection_report_id_key ON inspection_report USING btree (id)</t>
+    <t>mv_users_id_uidx</t>
+  </si>
+  <si>
+    <t>CREATE INDEX mv_users_id_uidx ON mv_users USING btree (id)</t>
   </si>
 </sst>
 </file>
@@ -589,8 +755,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -628,35 +794,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -665,7 +802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +824,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,11 +899,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,29 +917,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +943,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,31 +1051,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,138 +1124,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,15 +1167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1028,8 +1185,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,19 +1209,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1229,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1091,10 +1257,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1269,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,19 +1787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1649,7 +1815,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>771</v>
+        <v>274</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1660,7 +1826,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>772</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1671,7 +1837,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>773</v>
+        <v>276</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1682,7 +1848,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>774</v>
+        <v>277</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1693,7 +1859,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3">
-        <v>775</v>
+        <v>278</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1704,7 +1870,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>776</v>
+        <v>279</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1715,7 +1881,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3">
-        <v>777</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1726,7 +1892,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3">
-        <v>778</v>
+        <v>281</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1737,7 +1903,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3">
-        <v>779</v>
+        <v>282</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1748,57 +1914,134 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3">
-        <v>780</v>
+        <v>283</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3">
-        <v>781</v>
+        <v>284</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3">
-        <v>782</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3">
-        <v>783</v>
+        <v>286</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3">
-        <v>784</v>
+        <v>287</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>288</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>289</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>290</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>291</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>292</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>293</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>294</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1812,17 +2055,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="9.5" style="1"/>
+    <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1830,33 +2079,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1864,7 +2113,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1875,10 +2124,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1886,13 +2135,13 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1906,26 +2155,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8" style="1" customWidth="1"/>
     <col min="7" max="8" width="7.7" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.3" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="13" width="7.7" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.1" style="1" customWidth="1"/>
   </cols>
@@ -1935,77 +2184,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3">
-        <v>710</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3">
         <v>-1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>0</v>
       </c>
@@ -2018,44 +2265,122 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3">
-        <v>711</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3">
         <v>-1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>126</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>124</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3">
-        <v>23</v>
+      <c r="M5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2096,87 +2421,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3">
         <v>-1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2190,747 +2515,1235 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.46" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.3" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.8" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.1" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" style="1" customWidth="1"/>
-    <col min="17" max="20" width="15.9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="15.9" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3">
-        <v>51391</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="3">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3">
+        <v>134</v>
+      </c>
+      <c r="T2" s="3">
+        <v>11</v>
+      </c>
+      <c r="U2" s="3">
+        <v>11</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="3">
+        <v>136</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="3">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="S3" s="3">
+        <v>43</v>
+      </c>
+      <c r="T3" s="3">
+        <v>8</v>
+      </c>
+      <c r="U3" s="3">
+        <v>8</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="3">
+        <v>137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="3">
-        <v>97</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2174</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3">
-        <v>51392</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1388</v>
-      </c>
-      <c r="N3" s="3">
-        <v>6944</v>
-      </c>
-      <c r="O3" s="3">
-        <v>61</v>
-      </c>
-      <c r="P3" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3">
-        <v>51398</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10874</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="3">
-        <v>399</v>
-      </c>
-      <c r="N4" s="3">
-        <v>617072</v>
-      </c>
-      <c r="O4" s="3">
-        <v>947</v>
-      </c>
-      <c r="P4" s="3">
-        <v>612825</v>
+      <c r="P4" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="3">
+        <v>13</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="3">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3">
-        <v>51397</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3">
+        <v>255</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="3">
+        <v>13</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2847</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="3">
+        <v>139</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="3">
+        <v>12</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="3">
+        <v>140</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="L7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="3">
-        <v>35</v>
-      </c>
-      <c r="N5" s="3">
-        <v>77</v>
-      </c>
-      <c r="O5" s="3">
-        <v>5</v>
-      </c>
-      <c r="P5" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3">
-        <v>51396</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" s="3">
+        <v>73</v>
+      </c>
+      <c r="S7" s="3">
+        <v>121</v>
+      </c>
+      <c r="T7" s="3">
+        <v>21</v>
+      </c>
+      <c r="U7" s="3">
+        <v>19</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="3">
+        <v>141</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="3">
+        <v>199</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T8" s="3">
+        <v>50</v>
+      </c>
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="3">
+        <v>142</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="3">
+        <v>185</v>
+      </c>
+      <c r="S9" s="3">
+        <v>518</v>
+      </c>
+      <c r="T9" s="3">
+        <v>64</v>
+      </c>
+      <c r="U9" s="3">
+        <v>128</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="3">
+        <v>143</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="3">
+        <v>185</v>
+      </c>
+      <c r="S10" s="3">
+        <v>322</v>
+      </c>
+      <c r="T10" s="3">
+        <v>64</v>
+      </c>
+      <c r="U10" s="3">
+        <v>64</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="3">
+        <v>144</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="3">
+        <v>148</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5129</v>
+      </c>
+      <c r="T11" s="3">
+        <v>89</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2276</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="3">
+        <v>145</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="3">
+        <v>120</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4123</v>
+      </c>
+      <c r="T12" s="3">
+        <v>64</v>
+      </c>
+      <c r="U12" s="3">
+        <v>651</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="3">
+        <v>146</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="3">
+        <v>247</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5415</v>
+      </c>
+      <c r="T13" s="3">
+        <v>39</v>
+      </c>
+      <c r="U13" s="3">
+        <v>134</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="3">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="3">
+        <v>198</v>
+      </c>
+      <c r="S14" s="3">
+        <v>646</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="3">
+        <v>148</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1052</v>
-      </c>
-      <c r="N6" s="3">
-        <v>11410</v>
-      </c>
-      <c r="O6" s="3">
-        <v>226</v>
-      </c>
-      <c r="P6" s="3">
-        <v>624</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3">
-        <v>51395</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="R15" s="3">
+        <v>13</v>
+      </c>
+      <c r="S15" s="3">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3">
-        <v>84</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1126</v>
-      </c>
-      <c r="N7" s="3">
-        <v>55696</v>
-      </c>
-      <c r="O7" s="3">
-        <v>184</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2072</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3">
-        <v>51394</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4848</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="3">
-        <v>466</v>
-      </c>
-      <c r="N8" s="3">
-        <v>308057</v>
-      </c>
-      <c r="O8" s="3">
-        <v>54437</v>
-      </c>
-      <c r="P8" s="3">
-        <v>34971539</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="3">
+        <v>149</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3">
-        <v>51393</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3">
-        <v>58</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1087</v>
-      </c>
-      <c r="N9" s="3">
-        <v>24515</v>
-      </c>
-      <c r="O9" s="3">
-        <v>223</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1655</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
-        <v>51390</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1891</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="3">
-        <v>49</v>
-      </c>
-      <c r="N10" s="3">
-        <v>62535</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3">
-        <v>51389</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="3">
-        <v>223</v>
-      </c>
-      <c r="N11" s="3">
-        <v>223</v>
-      </c>
-      <c r="O11" s="3">
-        <v>96</v>
-      </c>
-      <c r="P11" s="3">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3">
-        <v>51388</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3">
-        <v>84</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="3">
-        <v>660</v>
-      </c>
-      <c r="N12" s="3">
-        <v>41649</v>
-      </c>
-      <c r="O12" s="3">
-        <v>341</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3511</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>99</v>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2213</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="R16" s="3">
+        <v>16</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3900015</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2944,23 +3757,143 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.8" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.8" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.3" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="101.2" style="1" customWidth="1"/>
@@ -2971,867 +3904,1009 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3">
-        <v>96696</v>
+        <v>833</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3">
-        <v>96695</v>
+        <v>834</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K3" s="3">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3">
-        <v>96694</v>
+        <v>835</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
-        <v>96693</v>
+        <v>836</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3">
-        <v>945</v>
+        <v>11</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
-        <v>96692</v>
+        <v>837</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3">
-        <v>96691</v>
+        <v>838</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3">
-        <v>96690</v>
+        <v>839</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3">
-        <v>48172</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
-        <v>96689</v>
+        <v>840</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3">
-        <v>6260</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
-        <v>96688</v>
+        <v>841</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
-        <v>96687</v>
+        <v>842</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
-        <v>96686</v>
+        <v>843</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
-        <v>96685</v>
+        <v>844</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K13" s="3">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>96684</v>
+        <v>845</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>96683</v>
+        <v>846</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
-        <v>96682</v>
+        <v>847</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K16" s="3">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
-        <v>96681</v>
+        <v>848</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K17" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
-        <v>96680</v>
+        <v>849</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3">
-        <v>96679</v>
+        <v>850</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
-        <v>96678</v>
+        <v>851</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3">
-        <v>96677</v>
+        <v>852</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3">
-        <v>96676</v>
+        <v>853</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3">
-        <v>96675</v>
+        <v>854</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K23" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3">
-        <v>96674</v>
+        <v>855</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K24" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>186</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>856</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>857</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="3">
+        <v>64</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>858</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>859</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
